--- a/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
+++ b/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="15495"/>
+    <workbookView windowWidth="27855" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>CustomTypeMapping3</t>
+  </si>
+  <si>
+    <t>RefValue</t>
+  </si>
+  <si>
+    <t>RefValue2</t>
   </si>
   <si>
     <t>唯一id</t>
@@ -127,6 +133,17 @@
     <t>自定义解析数据类型2</t>
   </si>
   <si>
+    <t>引用其他单元格数据
+写法为：
+${id.列名}$
+或者
+${表名.id.列名}$
+注意：引用单元格数据优先级比解析数据高，所以引用单元格数据其实是改编当前单元格中的文本</t>
+  </si>
+  <si>
+    <t>引用其他单元格数据</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -170,6 +187,9 @@
   </si>
   <si>
     <t>BBCode</t>
+  </si>
+  <si>
+    <t>[string]*</t>
   </si>
   <si>
     <t>0001</t>
@@ -370,6 +390,13 @@
       </rPr>
       <t>小</t>
     </r>
+  </si>
+  <si>
+    <t>${0001.String}$</t>
+  </si>
+  <si>
+    <t>"${0001.String}$",
+"${Table2.item_0001.Name}$"</t>
   </si>
   <si>
     <t>0002</t>
@@ -1439,15 +1466,15 @@
   <sheetPr/>
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="3" max="3" width="9.30833333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.775" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.725" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.1666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.6333333333333" style="2" customWidth="1"/>
@@ -1458,8 +1485,8 @@
     <col min="14" max="14" width="21.6666666666667" style="2" customWidth="1"/>
     <col min="15" max="15" width="24.5833333333333" customWidth="1"/>
     <col min="16" max="16" width="34.575" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.1083333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23.1083333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="33.05" style="2" customWidth="1"/>
+    <col min="18" max="18" width="31.9416666666667" style="2" customWidth="1"/>
     <col min="19" max="19" width="23.775" style="2" customWidth="1"/>
     <col min="20" max="20" width="20.3333333333333" style="2" customWidth="1"/>
     <col min="21" max="21" width="21" style="2" customWidth="1"/>
@@ -1482,7 +1509,7 @@
     <col min="38" max="40" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:16">
+    <row r="1" ht="31" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1531,58 +1558,68 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:44">
+    <row r="2" ht="154" customHeight="1" spans="1:44">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1607,62 +1644,68 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:16">
+    <row r="3" ht="27" customHeight="1" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>45</v>
+      <c r="R3" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" ht="110" customHeight="1" spans="1:16">
+    <row r="4" ht="110" customHeight="1" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1">
         <v>12.3</v>
@@ -1671,45 +1714,51 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="49" customHeight="1" spans="1:15">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5"/>
       <c r="O5" s="7"/>

--- a/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
+++ b/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14280"/>
+    <workbookView windowWidth="24765" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Map</t>
   </si>
   <si>
+    <t>EnumMap</t>
+  </si>
+  <si>
     <t>MapArray</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>字典</t>
+  </si>
+  <si>
+    <t>枚举key字典</t>
   </si>
   <si>
     <t>字典套数组</t>
@@ -162,6 +168,9 @@
     <t>{string:int}</t>
   </si>
   <si>
+    <t>{ActivityType:string}</t>
+  </si>
+  <si>
     <t>{string:[int]}</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
 "key1":1,
 "key2":2
 }</t>
+  </si>
+  <si>
+    <t>{"1":"aabb"}</t>
   </si>
   <si>
     <t>{
@@ -1107,11 +1119,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1466,8 +1478,8 @@
   <sheetPr/>
   <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1477,17 +1489,17 @@
     <col min="5" max="5" width="12.775" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.725" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.1666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.6333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6583333333333" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.5833333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.3333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.8916666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.6666666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="34.575" style="2" customWidth="1"/>
-    <col min="17" max="17" width="33.05" style="2" customWidth="1"/>
-    <col min="18" max="18" width="31.9416666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.8333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.6333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.6583333333333" style="2" customWidth="1"/>
+    <col min="11" max="12" width="19.5833333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.3333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.8916666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.5833333333333" customWidth="1"/>
+    <col min="17" max="17" width="34.575" style="2" customWidth="1"/>
+    <col min="18" max="18" width="33.05" style="2" customWidth="1"/>
+    <col min="19" max="19" width="31.9416666666667" style="2" customWidth="1"/>
     <col min="20" max="20" width="20.3333333333333" style="2" customWidth="1"/>
     <col min="21" max="21" width="21" style="2" customWidth="1"/>
     <col min="22" max="22" width="15.6666666666667" style="2" customWidth="1"/>
@@ -1509,7 +1521,7 @@
     <col min="38" max="40" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:18">
+    <row r="1" ht="31" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1563,149 +1575,139 @@
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="154" customHeight="1" spans="1:44">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
         <v>32</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:18">
+    <row r="3" ht="27" customHeight="1" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
       <c r="Q3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" ht="110" customHeight="1" spans="1:18">
+    <row r="4" ht="110" customHeight="1" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>12.3</v>
@@ -1714,54 +1716,56 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="O4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" ht="49" customHeight="1" spans="1:15">
+    <row r="5" ht="49" customHeight="1" spans="1:16">
       <c r="A5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5"/>
-      <c r="O5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="P5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
+++ b/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>String</t>
   </si>
   <si>
+    <t>EnumType</t>
+  </si>
+  <si>
     <t>Array</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>字符串</t>
+  </si>
+  <si>
+    <t>枚举，枚举字符串或者枚举索引都可以</t>
   </si>
   <si>
     <t>数组</t>
@@ -162,6 +168,9 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
     <t>[int]</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Bullet</t>
   </si>
   <si>
     <t>[1,2,3]</t>
@@ -219,7 +231,7 @@
 }</t>
   </si>
   <si>
-    <t>{"1":"aabb"}</t>
+    <t>{"Player":"aabb"}</t>
   </si>
   <si>
     <t>{
@@ -1119,11 +1131,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1476,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1487,41 +1499,41 @@
     <col min="3" max="3" width="9.30833333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.1083333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.775" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.725" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.1666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.8333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.6333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.6583333333333" style="2" customWidth="1"/>
-    <col min="11" max="12" width="19.5833333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.3333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.8916666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.6666666666667" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.5833333333333" customWidth="1"/>
-    <col min="17" max="17" width="34.575" style="2" customWidth="1"/>
-    <col min="18" max="18" width="33.05" style="2" customWidth="1"/>
-    <col min="19" max="19" width="31.9416666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.3333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="21" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23.775" style="2" customWidth="1"/>
-    <col min="24" max="24" width="24.1083333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="25.8916666666667" style="2" customWidth="1"/>
-    <col min="26" max="26" width="24.775" style="2" customWidth="1"/>
-    <col min="27" max="27" width="28.8916666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="17.3333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.775" style="2" customWidth="1"/>
-    <col min="30" max="30" width="19.0083333333333" style="2" customWidth="1"/>
-    <col min="31" max="31" width="20" style="2" customWidth="1"/>
-    <col min="32" max="32" width="30.9833333333333" style="2" customWidth="1"/>
-    <col min="33" max="33" width="22.9666666666667" style="2" customWidth="1"/>
-    <col min="34" max="34" width="23.7" style="2" customWidth="1"/>
-    <col min="35" max="35" width="27.65" style="2" customWidth="1"/>
-    <col min="36" max="36" width="27.775" style="2" customWidth="1"/>
-    <col min="37" max="37" width="24.075" style="2" customWidth="1"/>
-    <col min="38" max="40" width="9" style="2"/>
+    <col min="6" max="6" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.725" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.6333333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.6583333333333" style="2" customWidth="1"/>
+    <col min="12" max="13" width="19.5833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.3333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.8916666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.5833333333333" customWidth="1"/>
+    <col min="18" max="18" width="34.575" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.05" style="2" customWidth="1"/>
+    <col min="20" max="20" width="31.9416666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="21" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="23.775" style="2" customWidth="1"/>
+    <col min="25" max="25" width="24.1083333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="25.8916666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="24.775" style="2" customWidth="1"/>
+    <col min="28" max="28" width="28.8916666666667" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="30" max="30" width="17.775" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.0083333333333" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20" style="2" customWidth="1"/>
+    <col min="33" max="33" width="30.9833333333333" style="2" customWidth="1"/>
+    <col min="34" max="34" width="22.9666666666667" style="2" customWidth="1"/>
+    <col min="35" max="35" width="23.7" style="2" customWidth="1"/>
+    <col min="36" max="36" width="27.65" style="2" customWidth="1"/>
+    <col min="37" max="37" width="27.775" style="2" customWidth="1"/>
+    <col min="38" max="38" width="24.075" style="2" customWidth="1"/>
+    <col min="39" max="41" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:19">
+    <row r="1" ht="31" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1549,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1579,135 +1591,144 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="154" customHeight="1" spans="1:44">
+    <row r="2" ht="154" customHeight="1" spans="1:45">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
         <v>34</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:19">
+    <row r="3" ht="27" customHeight="1" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" ht="110" customHeight="1" spans="1:19">
+    <row r="4" ht="110" customHeight="1" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>12.3</v>
@@ -1716,56 +1737,62 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="P4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="S4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="5" ht="49" customHeight="1" spans="1:16">
+    <row r="5" ht="49" customHeight="1" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
+++ b/GunfireDungeon_Godot/excelTool/excel/Test.xlsx
@@ -1490,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
